--- a/va_facility_data_2025-02-20/Fort Pierce VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Pierce%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Pierce VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Pierce%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8993fc3a62664cfa8d21a07392d8983e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7144af27d55c46d0b8761f03be205154"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8f57a12cab694b17ae0dfb04df888d17"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R284e8b016cd34b5b87b980b1effc4cf2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd40df60491ca4f33a8e4ff5c63f55d09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R45127444989b4ffcb1ec50d5e445396a"/>
   </x:sheets>
 </x:workbook>
 </file>
